--- a/Top_Ten_DB.xlsx
+++ b/Top_Ten_DB.xlsx
@@ -2,25 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boourns\Documents\NSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boourns\Documents\NSS\projects\app-trader-team_whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34AA862-6000-4730-99E1-E5C63FF32B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5D0B3B-A9A3-4AD5-B54D-3B32CEA7F477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data-1598110256881" sheetId="1" r:id="rId1"/>
-    <sheet name="avgs" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
+    <sheet name="data-1598110256881" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="avgs" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data-1598110256881'!$A$1:$J$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'data-1598110256881'!$A$1:$J$269</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="322">
   <si>
     <t>name</t>
   </si>
@@ -949,6 +954,66 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>'Instagram'</t>
+  </si>
+  <si>
+    <t>'Subway Surfers'</t>
+  </si>
+  <si>
+    <t>'WhatsApp Messenger'</t>
+  </si>
+  <si>
+    <t>'Facebook'</t>
+  </si>
+  <si>
+    <t>'Hangouts'</t>
+  </si>
+  <si>
+    <t>'Google Street View'</t>
+  </si>
+  <si>
+    <t>'Google Play Movies &amp; TV'</t>
+  </si>
+  <si>
+    <t>'Candy Crush Saga'</t>
+  </si>
+  <si>
+    <t>'Twitter'</t>
+  </si>
+  <si>
+    <t>'Temple Run 2'</t>
+  </si>
+  <si>
+    <t>'Instagram','Subway Surfers','WhatsApp Messenger','Facebook','Hangouts','Google Street View','Google Play Movies &amp; TV','Candy Crush Saga','Twitter','Temple Run 2'</t>
+  </si>
+  <si>
+    <t>app_store_rating</t>
+  </si>
+  <si>
+    <t>play_store_rating</t>
+  </si>
+  <si>
+    <t>app_store_review_count</t>
+  </si>
+  <si>
+    <t>play_store_review_count</t>
+  </si>
+  <si>
+    <t>app_store_install_count</t>
+  </si>
+  <si>
+    <t>play_store_install_count</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of user_years</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1621,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1582,12 +1647,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1600,6 +1659,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1656,6 +1733,1596 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Top_Ten_DB.xlsx]Sheet3!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Top Ten Apps by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> User-Years</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Candy Crush Saga</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Play Movies &amp; TV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google Street View</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hangouts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Instagram</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subway Surfers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Temple Run 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Twitter</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WhatsApp Messenger</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5245257470</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9682688142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000243780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9000332775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9008354718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10551197290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10180058050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5075278805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5090284790</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10073335195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-44A1-45E6-ACE2-3F2E4A1475B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1101022015"/>
+        <c:axId val="798681183"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1101022015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798681183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="798681183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1101022015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="billions"/>
+          <c:dispUnitsLbl>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="2.3833167825223437E-2"/>
+                <c:y val="0.34081999228769388"/>
+              </c:manualLayout>
+            </c:layout>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US"/>
+                    <a:t>User-Years (in Billions)</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B731F224-CCB5-4ED3-B90D-8FD9A0BFF961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boourns" refreshedDate="44066.916239699072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{323D6580-48FC-4F22-9E76-AA3A6A1C04BB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H11" sheet="data-1598110256881"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Instagram"/>
+        <s v="Subway Surfers"/>
+        <s v="WhatsApp Messenger"/>
+        <s v="Facebook"/>
+        <s v="Hangouts"/>
+        <s v="Google Street View"/>
+        <s v="Google Play Movies &amp; TV"/>
+        <s v="Candy Crush Saga"/>
+        <s v="Twitter"/>
+        <s v="Temple Run 2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="total_reviews" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="907579" maxValue="81102884"/>
+    </cacheField>
+    <cacheField name="total_installs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="507527880.5" maxValue="1075854238"/>
+    </cacheField>
+    <cacheField name="user_stars" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5" maxValue="4.5"/>
+    </cacheField>
+    <cacheField name="star_years" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="532392217" maxValue="1307793465"/>
+    </cacheField>
+    <cacheField name="longevity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="10"/>
+    </cacheField>
+    <cacheField name="user_years" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5075278805" maxValue="10551197290"/>
+    </cacheField>
+    <cacheField name="avg_user_years" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="46618671.5" maxValue="46618671.5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <n v="68738871"/>
+    <n v="1055119729"/>
+    <n v="4.5"/>
+    <n v="1248038780"/>
+    <n v="10"/>
+    <n v="10551197290"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28430204"/>
+    <n v="1018005805"/>
+    <n v="4.5"/>
+    <n v="1081026122"/>
+    <n v="10"/>
+    <n v="10180058050"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="69406905"/>
+    <n v="1007333519.5"/>
+    <n v="4.5"/>
+    <n v="1032272824"/>
+    <n v="10"/>
+    <n v="10073335195"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="81102884"/>
+    <n v="1075854238"/>
+    <n v="4"/>
+    <n v="1307793465"/>
+    <n v="9"/>
+    <n v="9682688142"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3455917"/>
+    <n v="1000928302"/>
+    <n v="4"/>
+    <n v="1003713208"/>
+    <n v="9"/>
+    <n v="9008354718"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2131157"/>
+    <n v="1000036975"/>
+    <n v="4"/>
+    <n v="1000155294"/>
+    <n v="9"/>
+    <n v="9000332775"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="907579"/>
+    <n v="1000030472.5"/>
+    <n v="3.5"/>
+    <n v="1000112747"/>
+    <n v="8"/>
+    <n v="8000243780"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="23391982"/>
+    <n v="524525747"/>
+    <n v="4.5"/>
+    <n v="608027964"/>
+    <n v="10"/>
+    <n v="5245257470"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="12021461"/>
+    <n v="509028479"/>
+    <n v="4.5"/>
+    <n v="538694351"/>
+    <n v="10"/>
+    <n v="5090284790"/>
+    <n v="46618671.5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8414362"/>
+    <n v="507527880.5"/>
+    <n v="4.5"/>
+    <n v="532392217"/>
+    <n v="10"/>
+    <n v="5075278805"/>
+    <n v="46618671.5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2731E2BE-4586-4711-B641-5571368F2D32}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of user_years" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,12 +3621,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF242D8-D2DD-40D3-9103-EF3C8FC33BB4}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="28">
+        <v>5245257470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28">
+        <v>9682688142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="28">
+        <v>8000243780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="28">
+        <v>9000332775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="28">
+        <v>9008354718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="28">
+        <v>10551197290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="28">
+        <v>10180058050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="28">
+        <v>5075278805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="28">
+        <v>5090284790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28">
+        <v>10073335195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="28">
+        <v>81907031015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L269"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I2:I11"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1973,7 +3757,8 @@
     <col min="8" max="8" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -2413,6 +4198,12 @@
       <c r="G12" s="3">
         <v>5031584045</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I12" t="s">
+        <v>312</v>
+      </c>
       <c r="K12" s="1">
         <v>498970748.41890299</v>
       </c>
@@ -2442,6 +4233,9 @@
       <c r="G13" s="3">
         <v>5012642390</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -2465,6 +4259,9 @@
       <c r="G14" s="3">
         <v>5012239745</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="J14" s="1">
         <f>10*(3.85*(2500*120))</f>
         <v>11550000</v>
@@ -2492,6 +4289,9 @@
       <c r="G15" s="3">
         <v>5006830430</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -2515,8 +4315,11 @@
       <c r="G16" s="3">
         <v>5000964665</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2538,8 +4341,15 @@
       <c r="G17" s="3">
         <v>4574336197.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J17" s="1">
+        <f>(1500*12)*10*7</f>
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2561,8 +4371,11 @@
       <c r="G18" s="3">
         <v>1543355275</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2584,8 +4397,11 @@
       <c r="G19" s="3">
         <v>1439759230</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2607,8 +4423,11 @@
       <c r="G20" s="3">
         <v>1270714120</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2630,8 +4449,11 @@
       <c r="G21" s="3">
         <v>1251409600</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2654,7 +4476,7 @@
         <v>1144672720</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2677,7 +4499,7 @@
         <v>1106598415</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2700,7 +4522,7 @@
         <v>1103439985</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2723,7 +4545,7 @@
         <v>1100334595</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2746,7 +4568,7 @@
         <v>1095333535</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2769,7 +4591,7 @@
         <v>1094444350</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2792,7 +4614,7 @@
         <v>1085244715</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2815,7 +4637,7 @@
         <v>1083391375</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2838,7 +4660,7 @@
         <v>1078755220</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2861,7 +4683,7 @@
         <v>1068064855</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -8342,12 +10164,289 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6616BA8-8486-4DDD-AC71-10627A0CC69A}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="C2" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D2" s="25">
+        <v>961794</v>
+      </c>
+      <c r="E2" s="25">
+        <v>22428456</v>
+      </c>
+      <c r="F2" s="25">
+        <v>24525747</v>
+      </c>
+      <c r="G2" s="25">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D3" s="25">
+        <v>2974676</v>
+      </c>
+      <c r="E3" s="25">
+        <v>78128208</v>
+      </c>
+      <c r="F3" s="25">
+        <v>75854238</v>
+      </c>
+      <c r="G3" s="25">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="24">
+        <v>3</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3.7</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1195</v>
+      </c>
+      <c r="E4" s="25">
+        <v>906384</v>
+      </c>
+      <c r="F4" s="25">
+        <v>30472.5</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="24">
+        <v>4</v>
+      </c>
+      <c r="C5" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1450</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2129707</v>
+      </c>
+      <c r="F5" s="25">
+        <v>36975</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24">
+        <v>4</v>
+      </c>
+      <c r="D6" s="25">
+        <v>36404</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3419513</v>
+      </c>
+      <c r="F6" s="25">
+        <v>928302</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="25">
+        <v>2161558</v>
+      </c>
+      <c r="E7" s="25">
+        <v>66577313</v>
+      </c>
+      <c r="F7" s="25">
+        <v>55119729</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="25">
+        <v>706110</v>
+      </c>
+      <c r="E8" s="25">
+        <v>27724094</v>
+      </c>
+      <c r="F8" s="25">
+        <v>18005805</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="C9" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="D9" s="25">
+        <v>295211</v>
+      </c>
+      <c r="E9" s="25">
+        <v>8119154</v>
+      </c>
+      <c r="F9" s="25">
+        <v>7527880.5</v>
+      </c>
+      <c r="G9" s="25">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="D10" s="25">
+        <v>354058</v>
+      </c>
+      <c r="E10" s="25">
+        <v>11667403</v>
+      </c>
+      <c r="F10" s="25">
+        <v>9028479</v>
+      </c>
+      <c r="G10" s="25">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D11" s="25">
+        <v>287589</v>
+      </c>
+      <c r="E11" s="25">
+        <v>69119316</v>
+      </c>
+      <c r="F11" s="25">
+        <v>7333519.5</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8419,11 +10518,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
@@ -8449,166 +10548,166 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -8645,168 +10744,168 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="17" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -8861,166 +10960,166 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -9041,166 +11140,166 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
       <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9255,166 +11354,166 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
       <c r="N51" s="10"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
       <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
       <c r="N53" s="10"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="10"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
       <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
       <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
       <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
       <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
       <c r="N59" s="10"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
       <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -9451,166 +11550,166 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
       <c r="N63" s="10"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
       <c r="N64" s="10"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="10"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="10"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="10"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
       <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
       <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
       <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
       <c r="N71" s="10"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
       <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
